--- a/doc/processing_methods.xlsx
+++ b/doc/processing_methods.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
   <si>
     <t>Filter</t>
   </si>
@@ -169,6 +169,16 @@
   </si>
   <si>
     <t>sbe19plus_v2_3</t>
+  </si>
+  <si>
+    <t>Temperature = +0.50
+Conductivity = +0.05</t>
+  </si>
+  <si>
+    <t>sbe19plus_v2_4</t>
+  </si>
+  <si>
+    <t>sbe19plus_v2_5</t>
   </si>
 </sst>
 </file>
@@ -501,19 +511,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="3" max="10" width="25.90625" customWidth="1"/>
+    <col min="3" max="12" width="25.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -533,16 +543,22 @@
         <v>33</v>
       </c>
       <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -570,11 +586,17 @@
       <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,11 +624,17 @@
       <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -629,16 +657,22 @@
         <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -666,11 +700,17 @@
       <c r="I5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -684,10 +724,10 @@
         <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>29</v>
@@ -701,8 +741,14 @@
       <c r="J6" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="K6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -730,11 +776,17 @@
       <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -762,11 +814,17 @@
       <c r="I8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -794,11 +852,17 @@
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -826,7 +890,13 @@
       <c r="I10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/doc/processing_methods.xlsx
+++ b/doc/processing_methods.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27970" windowHeight="9870"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="6450"/>
   </bookViews>
   <sheets>
     <sheet name="processing_methods" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="49">
   <si>
     <t>Filter</t>
   </si>
@@ -52,9 +52,6 @@
   <si>
     <t>By scan
 By pressure</t>
-  </si>
-  <si>
-    <t>sbe19plus</t>
   </si>
   <si>
     <t>sbe19plus_v1</t>
@@ -129,9 +126,6 @@
     <t>Min = 0.1 m/s</t>
   </si>
   <si>
-    <t>Median (11)</t>
-  </si>
-  <si>
     <t>EOS-80, TEOS-10</t>
   </si>
   <si>
@@ -179,6 +173,90 @@
   </si>
   <si>
     <t>sbe19plus_v2_5</t>
+  </si>
+  <si>
+    <t>sbe19plus_v3_4</t>
+  </si>
+  <si>
+    <t>sbe19plus_v3_5</t>
+  </si>
+  <si>
+    <t>Temperature = +0.50
+Conductivity = +0.10</t>
+  </si>
+  <si>
+    <t>Median (5)</t>
+  </si>
+  <si>
+    <t>sbe19plus_v2_6</t>
+  </si>
+  <si>
+    <t>sbe19plus_v2_7</t>
+  </si>
+  <si>
+    <t>Temperature = +0.50
+Conductivity = -0.05</t>
+  </si>
+  <si>
+    <t>sbe19plus_v0</t>
+  </si>
+  <si>
+    <t>Temperature = +0.75
+Conductivity = +0.05</t>
+  </si>
+  <si>
+    <t>Temperature = +0.75
+Conductivity = +0.10</t>
+  </si>
+  <si>
+    <t>sbe19plus_v2_8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = -4
+1/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 8</t>
+    </r>
+  </si>
+  <si>
+    <t>sbe19plus_v6</t>
+  </si>
+  <si>
+    <t>Temperature = +1.25</t>
   </si>
 </sst>
 </file>
@@ -220,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -229,6 +307,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -511,320 +592,465 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="25.26953125" customWidth="1"/>
-    <col min="3" max="12" width="25.90625" customWidth="1"/>
+    <col min="3" max="17" width="25.90625" customWidth="1"/>
+    <col min="18" max="18" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
-        <v>14</v>
+      <c r="R1" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>16</v>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="3" t="s">
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
+      <c r="K6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -858,46 +1084,82 @@
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
